--- a/biology/Zoologie/Cryptopelta/Cryptopelta.xlsx
+++ b/biology/Zoologie/Cryptopelta/Cryptopelta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptopelta est un genre d'ophiures (groupe proche des étoiles de mer) de la famille des Ophiodermatidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2020) :
 Cryptopelta aster (Lyman, 1879) - espèce type
 Cryptopelta brevispina (Ludwig, 1879)
 Cryptopelta callista H.L. Clark, 1938
@@ -556,9 +570,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Cryptopelta, du grec ancien κρυπτός, kruptós, « couvert, caché » et πέλτη, peltē, « pelte, petit bouclier », a été choisi en référence au revêtement des boucliers buccaux par des granules[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cryptopelta, du grec ancien κρυπτός, kruptós, « couvert, caché » et πέλτη, peltē, « pelte, petit bouclier », a été choisi en référence au revêtement des boucliers buccaux par des granules.
 </t>
         </is>
       </c>
@@ -588,6 +604,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
